--- a/output/qa_pairs.xlsx
+++ b/output/qa_pairs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,70 +477,2170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mImjjCFVdSG</t>
+          <t>mImjjvUxg8C</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>李碧柔(8023)</t>
+          <t>王霞(8009)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>二手车注销</t>
+          <t>注销一下这个车ETC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>新AD1503</t>
+          <t>请问是什么原因注销呢</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45705.6859837963</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>02feb430-ed09-11ef-846b-5f58fd7643ae</t>
-        </is>
-      </c>
+        <v>45705.35070601852</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['ETC业务', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mImjjCFVdSG</t>
+          <t>mImjj9gsMLV</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>发起注销</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>请问是什么原因注销呢</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45705.35895833333</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mImjjt83d74</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>李碧柔(8023)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>二手车注销了给我个码我的工号是A3077</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>使用未满三年注销需支付 198 元的违约金请您扫描以下付款码进行缴费付款时备注车牌号付款后请您提供带有订单编号的付款截图给客服客服为您提交注销申请预计34个工作日完成注销并会有短信告知注销完成进度请您留意.注意一人多车请特别说明</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45705.68732638889</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>02feb430-ed09-11ef-846b-5f58fd7643ae</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>注销一下</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45705.36636574074</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mImjjjEnwM4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>几天注销好</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>注销需要34个工作日</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45705.37054398148</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mImjjARRav8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>注销etc</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45705.38577546296</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mImjjHClFRz</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>怎么注销现有的ETC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45705.39699074074</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mImjjbTNB9n</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>苏C***96黄牌货车查一下什么时候注销完</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>预计最快今天注销完成</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45705.40479166667</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mImjj7RR1Cf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>把我把这2个设备注销</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45705.4099074074</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mImjjBeETZj</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ETC卡注销.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45705.41234953704</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mImjjV2KK7H</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>我都查不到绑定的银行卡,无法充值</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>绑定的是6203交通银行</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45705.42738425926</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mImjj1C72gI</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>34天可以注销吗</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>注销需要34个工作日</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45705.43796296296</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>mImjjTHzc82</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>直接注销不就行了</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>提供相关信息后台才能提交注销</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45705.47746527778</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mImjjahPRhI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>王月(8008)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>怎么免费注销</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>无法免费注销的</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45705.50141203704</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mImjjKgclDv</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>etc注销</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45705.52229166667</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>mImjjGcntFE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>解绑银行卡</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>请提供下车牌号姓名及身份证号</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45705.53609953704</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mImjjIFKBLd</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>那这个注销要钱呢,怎么可能出注销费</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>解悠的合约期是3年,所以未使用满三年注销需要支付一定的费用.满3年免费注销</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45705.54372685185</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mImjjlKyVtg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>注销ETC</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45705.54582175926</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mImjjIFKBLd</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>那你注销的这个时间段客户就用不了ETC吗</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>是的预计34个工作日注销完成</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45705.55310185185</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>mImjjIFKBLd</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>那是不是现在就要支付押金呢</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>是的支付押金后这边办理注销流程</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45705.55388888889</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mImjjITBCg5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>支付异常怎么办</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>现在建行正在补扣,您卡里余额充足吗?</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45705.56097222222</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mImjjsgzKah</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>冀A***35需要注销</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45705.56177083333</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mImjjXyTxjA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>冀B***85 黄牌 申请一下注销</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>请问是什么原因注销呢</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45705.57413194444</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mImjjNvwjbK</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>注销etc</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45705.58277777778</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mImjj8HAhQx</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>注销ETC</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45705.61162037037</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mImjjfvGH5b</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>没用身份证办</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>办理是需要上传身份证的</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45705.6122337963</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mImjjEz28r2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>不用取消绑定就可以吗</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>是的,不用取消</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45705.64292824074</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['账户问题', '订单问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mImjj21cGQK</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上传车辆照片</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>请提供下车辆照片</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45705.65386574074</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mImjjT69YdQ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>可以提供行驶证和保单</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>请提供保单,绿本,行驶证(三选二)</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45705.65679398148</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mImjj9bvuIT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>这个客服说已经绑定成功了</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>好的,之前说绑定成功就可以了</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45705.66055555556</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['服务问题', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mImjjGNzhgl</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>订单取消</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>都需要取消吗?</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45705.68216435185</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['订单问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mImjjB5yZB5</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>蒙J***91 黄牌货车 注销ETC</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>请问是什么原因注销呢</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45705.70559027778</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mImjjL7eZcu</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>麻烦帮忙提交一下注销</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45705.74716435185</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mImjjzp7QC2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>支付了要发给你们么</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>您支付完把截图发给客服</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45705.75637731481</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mImjjfMgGxW</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>豫Q***85把我这个车的ETC账号给我注销了</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45705.78364583333</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mImjjLvw6jI</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>收费站说还欠费</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>这涉及到高速收费标准的问题,有时候高速识别的会多识别轴数或者少识别,多收了需要客户反馈给退,少了高速会稽查要补</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45705.84703703703</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['ETC业务', '支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mImjjjINrb6</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>是不是要从新实名</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>不需要实名需要重新激活下</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45705.85358796296</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['安全隐私', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mImjj72CaTx</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>办理ETC</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>您好!解悠ETC,请问有什么可以帮您?</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45706.33370370371</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['ETC业务']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mImjjcjfrIM</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>要 etc 身份证还是车主身份证</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>请提供扣款人身份证号</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45706.35722222222</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mImjj5NRbfV</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>你这不是没有费用吗?</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>解悠的合约期是3年,所以未使用满三年注销需要支付一定的费用.</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45706.36145833333</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mImjjWZg2dG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>我想问一下我那个20块钱的过路费,为什么那个服务费要7毛多,这个不是没有服务费吗 8009 为您服务</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>抱歉,解悠的产品都是会收取服务费的</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45706.38774305556</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['服务问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mImjjzTMWZg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>李佳雯(8039)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>意思是一周扣179元卡费和通行费用</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>周卡收费标准:正常每周二还款:通行费卡费(179),无服务费及通道费.</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45706.43508101852</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['ETC业务', '支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mImjjywrHGK</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>王月(8008)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>我需要办理注销ETC.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45706.45005787037</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mImjjfSwPR4</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>王月(8008)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>你好,我这边要注销皖S****8ETC</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45706.45074074074</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mImjjWzDKv1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>能不能更改绑定车辆</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>不支持更换车牌号</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45706.45958333334</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['账户问题', '车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mImjjHh18Nw</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>川A***90黄牌货车注销</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45706.47251157407</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mImjj2Y69y2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>王月(8008)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>川A***67注销ETX</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45706.47820601852</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mImjj98wDCx</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>王月(8008)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>注销这个车</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45706.48709490741</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mImjjHUyWgw</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>陈俏(8011)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>注销ETC</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45706.50694444445</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mImjjAY48jP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>取消这个还要验证码啊?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>取消订单都需要验证码的</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45706.53334490741</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['安全隐私', '订单问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mImjjbudlGd</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>在哪里能看到注销的订单详情呢</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>34个工作日注销完成会给办理手机号发送短信的</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45706.5387962963</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['账户问题', '订单问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mImjj93e3Wj</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>你好,现在货车扣款可以绑定微信的吗</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>不支持绑定微信</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45706.55340277778</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mImjjI8yQvC</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>王霞(8009)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>京A***00黄,注销</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>请问是什么原因注销呢</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45706.58809027778</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mImjjuXvKN6</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>注销吧</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45706.60940972222</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mImjjnl5X41</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>云L***80注销</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45706.63200231481</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mImjjpsM5Ar</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>注销ETC</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45706.63362268519</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mImjjxUBRDX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>京E***75蓝牌,这个能注销吗?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45706.63959490741</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mImjjp1Z8Bv</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>李军燕(8038)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>请问速通卡可以开通网页版吗</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>请问您说的是解悠小程序网页版吗?</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45706.65207175926</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['系统问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mImjjBy3FTj</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>激活ETC页面显示404了</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>您好!解悠ETC,请问有什么可以帮您?</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45706.66445601852</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['ETC业务']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mImjjQvzszX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>怎么解绑银行卡</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>请您提供车牌号,姓名,身份证号</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45706.67052083334</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mImjj6tBL7L</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>我想注销</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>请问是什么原因需要注销</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45706.69356481481</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mImjjGMr3ER</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>下面的车辆类型是重型半挂牵引车吗</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>回复:下面的车辆类型是重型半挂牵引车吗是的</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45706.75583333334</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mImjjhIY5Hw</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>那边说是ETC 问题</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>但通行账单确实是高速下发,您可以直接联系95022反馈一下</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45706.82280092593</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['投诉建议', 'ETC业务']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mImjjZapSUx</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>亲,为什么登陆中国ETC实名认证,显示用户不匹配</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>回复:亲,为什么登陆中国ETC实名认证,显示用户不匹配说明用的不是办理人的实名微信号</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45706.84805555556</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['安全隐私', 'ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mImjjThzVHV</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>京A***65注销</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45706.853125</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mImjjRNUjRj</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>微信直接用解悠小程序不行吗</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>小程序名称:解悠货车服务</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45706.86126157407</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['系统问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mImjjUcn8u5</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>那就不注销了,等用满再说吧</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>请问需要取消注销吗</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45706.86172453704</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mImjja2GLsD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Etc银行卡怎么解绑</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>您是什么原因要解绑银行卡?</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45706.87018518519</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mImjjjUDL8X</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>郭亚楠(8022)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>货车etc解绑</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45706.87354166667</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mImjjNw2Zfc</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>怎么支付啊</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>今天的账单请您保持银行卡余额充足,21:10,22:10还会划扣</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45706.87615740741</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mImjj6BaKt1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>注销etc</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>请问您什么原因需要注销ETC呢?</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45706.88074074074</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
         </is>
       </c>
     </row>

--- a/output/qa_pairs.xlsx
+++ b/output/qa_pairs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,150 +477,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mImjjjEnwM4</t>
+          <t>mImjjly7NUd</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>王霞(8009)</t>
+          <t>韦武(8010)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>几天注销好</t>
+          <t>客户着急办理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>注销需要34个工作日</t>
+          <t>如果很急建议换个手机号</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45705.37054398148</v>
+        <v>45744.4487037037</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['紧急问题']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mImjjV2KK7H</t>
+          <t>mImjjlUcUjY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>王霞(8009)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>我都查不到绑定的银行卡,无法充值</t>
+          <t>还是中国ETC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>绑定的是6203交通银行</t>
+          <t>中国ETC</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45705.42738425926</v>
+        <v>45744.47465277778</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['ETC业务']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mImjjahPRhI</t>
+          <t>mImjjN1hszt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>注销几天</t>
+          <t>付款了</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>注销需要34个工作日</t>
+          <t>请提供带订单编号的支付截图</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45705.46158564815</v>
+        <v>45744.6840162037</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['支付问题']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mImjjTHzc82</t>
+          <t>mImjjNGjrXB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>李军燕(8038)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>直接注销不就行了</t>
+          <t>修改吧</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>提供相关信息后台才能提交注销</t>
+          <t>稍等,这边为您提交修改</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45705.47746527778</v>
+        <v>45744.76846064815</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mImjjAGSlWU</t>
+          <t>mImjjshddS9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>王霞(8009)</t>
+          <t>李军燕(8038)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商银行卡 可以绑定不</t>
+          <t>这个几天之后可以注销成功.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>不支持绑定</t>
+          <t>34个工作日完成注销,注销成功之后就可以新办了</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45705.52167824074</v>
+        <v>45744.82119212963</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
@@ -632,317 +632,317 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mImjjh568XV</t>
+          <t>mImjjIzyIYX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>李军燕(8038)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>我想办一个ETC</t>
+          <t>转账成功后截图发到您这里是吧</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>您是需要新办ETC是嘛</t>
+          <t>是的,转账成功之后请您带付款截图发至我们客服这边,为您申请结清.</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45705.53054398148</v>
+        <v>45744.83432870371</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['ETC业务']</t>
+          <t>['支付问题']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mImjjGcntFE</t>
+          <t>mImjjbzK1fc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>王霞(8009)</t>
+          <t>孙可(8026)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>解绑银行卡</t>
+          <t>车辆出售</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>请提供下车牌号姓名及身份证号</t>
+          <t>请您提供一下行驶证</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45705.53609953704</v>
+        <v>45745.35604166667</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['车辆相关']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mImjjfvGH5b</t>
+          <t>mImjj3b1ZeH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>没用身份证办</t>
+          <t>旧手机号不能接验证码</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>办理是需要上传身份证的</t>
+          <t>那第一步新手机号实名好之后联系我们</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45705.6122337963</v>
+        <v>45745.38597222222</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['安全隐私']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mImjj21cGQK</t>
+          <t>mImjjcw2wSe</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>王霞(8009)</t>
+          <t>孙可(8026)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上传车辆照片</t>
+          <t>你好注销申请帮我加急</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>请提供下车辆照片</t>
+          <t>请您提供一下车牌号、姓名及身份证号</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45705.65386574074</v>
+        <v>45745.43996527778</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['车辆相关']</t>
+          <t>['紧急问题', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mImjjT69YdQ</t>
+          <t>mImjj1j2Fe9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>可以提供行驶证和保单</t>
+          <t>麻烦你帮我注销一下</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>请提供保单,绿本,行驶证(三选二)</t>
+          <t>速通注销 将文档打印下来,按要求将办理人和车辆的信息手抄填写完成后,将身份证原件摁在上面,拍照片发过来;将卡片剪断,拍照片发过来</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45705.65679398148</v>
+        <v>45745.45305555555</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['车辆相关']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mImjj9bvuIT</t>
+          <t>mImjjWvvFDf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>这个客服说已经绑定成功了</t>
+          <t>你好,怕有欠款影响车辆通行</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>好的,之前说绑定成功就可以了</t>
+          <t>请您提供下办理的车牌号(其中一个)、姓名、身份证号</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45705.66055555556</v>
+        <v>45745.45711805556</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['服务问题', '账户问题']</t>
+          <t>['车辆相关']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mImjjBQH48j</t>
+          <t>mImjjttU4HP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>李碧柔(8023)</t>
+          <t>刘雯(8036)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ETC注销</t>
+          <t>快速拔卡插卡两次显示记账卡</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>注销请您提供办理人姓名、联系方式、车牌号;</t>
+          <t>返回上一界面,快速插拔卡两次,设备屏幕显示蓝牙打开后再激活</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45705.69913194444</v>
+        <v>45745.46359953703</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['ETC业务', '账户问题']</t>
+          <t>['紧急问题']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mImjjs4vDW9</t>
+          <t>mImjjrdlTDv</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>李佳雯(8039)</t>
+          <t>孙可(8026)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>着急注销着急新办</t>
+          <t>我支付</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>注销要34个工作日</t>
+          <t>扫码支付需要提供行驶证保单绿本三选二</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45705.72949074074</v>
+        <v>45745.53943287037</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['紧急问题', '账户问题']</t>
+          <t>['支付问题']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mImjj3LLPNe</t>
+          <t>mImjjZ99nwP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>孙可(8026)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晋H***31黄牌注销原因换人办理</t>
+          <t>查询一下川Q***23黄牌货车状态</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>这边查询客户名下有一笔15号的账单逾期,目前无法提交注销,请账单结清后再联系我们提交</t>
+          <t>后台查询您还有今天的账单等待划扣,您记得存够钱今天下午5点10分会自动划扣</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45705.75708333333</v>
+        <v>45745.54710648148</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mImjjUFZPHe</t>
+          <t>mImjjfvv5sB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>刘雯(8036)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>那我就最后等四天,你们还是不能给一个完美的解决方案,那我只好走投诉通道了</t>
+          <t>我的退款咋还没有到账喃</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>实在抱歉,这边已经反馈了</t>
+          <t>车牌 川A****52,请稍等,正在为您查询</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45705.7856712963</v>
+        <v>45745.58096064815</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['投诉建议']</t>
+          <t>['订单问题', '支付问题']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mImjjrvfgd7</t>
+          <t>mImjjzPt5vu</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -952,78 +952,78 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>收费站显示补费,</t>
+          <t>不注销</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>您联系下95022转9转1 人工或者微信搜索收费公路通行费补费平台小程序,查询下是不是有稽查欠费,ETC是正常的</t>
+          <t>还没有注销</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45705.79266203703</v>
+        <v>45745.59027777778</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['支付问题', 'ETC业务']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mImjjLvw6jI</t>
+          <t>mImjjwYTe1U</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>郭亚楠(8022)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>收费站说还欠费</t>
+          <t>淘宝客户说,以后注销了</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>您可以通过收费站工作人员线下补缴或者微信搜索:收费公路通行费补费平台,进行补缴</t>
+          <t>需要支付完注销违约金34个工作日注销</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45705.84703703703</v>
+        <v>45745.59788194444</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['支付问题', 'ETC业务']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mImjj9eT4tv</t>
+          <t>mImjjwYTe1U</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>杨丽,鄂C***09身份证号422626********3329</t>
+          <t>讲的已经注销了</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>您不想使用ETC是可以吧设备拿下来,或者可以联系我们拉黑,您目前是只有一个银行绑定,会影响划扣的</t>
+          <t>后台显示未支付注销违约金,您跟他再核实一下吧</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45705.85111111111</v>
+        <v>45745.59878472222</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
@@ -1035,26 +1035,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mImjjurDyWr</t>
+          <t>mImjjlTCb8p</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>晋C***67 晋C***06这两个提交注销了没</t>
+          <t>花钱就先不注销了</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>没有查询到提交注销记录</t>
+          <t>不注销的话新车主那边无法办理etc的</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45705.85599537037</v>
+        <v>45745.70636574074</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
@@ -1066,212 +1066,212 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mImjjcjfrIM</t>
+          <t>mImjjVT86Rv</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>王霞(8009)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>要 etc 身份证还是车主身份证</t>
+          <t>我要注销这个车牌</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>经查询您有ETC通行帐单今晚正等待划扣,若您目前无其他银行可以绑定,请您于今晚22:40至次日凌晨1:30去手动还款,ETC不会被拉黑</t>
+          <t>请提供办理人的车牌号 姓名 手机号</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45706.35722222222</v>
+        <v>45745.7224074074</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['ETC业务', '账户问题']</t>
+          <t>['车辆相关', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mImjjzTMWZg</t>
+          <t>mImjjMXjAuX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>李佳雯(8039)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>意思是一周扣179元卡费和通行费用</t>
+          <t>后台查询不了嘛</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>周卡收费标准:正常每周二还款:通行费卡费(179),无服务费及通道费.</t>
+          <t>后台只能查询出了账单的,不能通行的这边是查不到的</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45706.43508101852</v>
+        <v>45745.78429398148</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['支付问题', 'ETC业务']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mImjjfSwPR4</t>
+          <t>mImjjuZSyE7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>王月(8008)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>我这里只有车牌号</t>
+          <t>怕身份证正反面照片清晰度不够 先和客服报备一下 不弄虚作假</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>请您提供行驶证、保单、绿本(三选二).</t>
+          <t>您这个身份证已经过期了</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45706.45157407408</v>
+        <v>45745.82974537037</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['车辆相关']</t>
+          <t>['服务问题', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mImjjQSKezR</t>
+          <t>mImjj4tVRvK</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>郭亚楠(8022)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ETC积分</t>
+          <t>8039 0328 155922 晋M***52 后台查询到客户名下另一辆车有账单逾期,需要将账单结清之后才能申请注销 0328 16003 联系不上前车主</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>我司ETC没有积分的</t>
+          <t>结清之后可以办理注销</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45706.54719907408</v>
+        <v>45745.8474537037</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['ETC业务', '优惠活动']</t>
+          <t>['订单问题', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mImjjXyTxjA</t>
+          <t>mImjjyFD6zT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>李佳雯(8039)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>京A***26 京A***67 京A***10 京A***08 这几台车,查注销进度</t>
+          <t>明天转了,多会可以注销</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>后台查看已提交注销,违约金180元还未支付</t>
+          <t>转完之后您提供一下转账截图,填写一下注销单</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45706.5759375</v>
+        <v>45745.86570601852</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['订单问题', '账户问题']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mImjjNFBZP8</t>
+          <t>mImjjyFD6zT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>李军燕(8038)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>有服务费是吧</t>
+          <t>明天注销</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>是的,是有服务费的,相关政策您看这个图片就可以了解到的</t>
+          <t>需要注销完成才能新办,注销需要34个工作日</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45706.60134259259</v>
+        <v>45745.86825231482</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['服务问题']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mImjjNRQad2</t>
+          <t>mImjjlZPlve</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>李碧柔(8023)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>申请注销,要卖车了</t>
+          <t>能否换绑定的银行卡</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>注销请您提供办理人姓名、联系方式</t>
+          <t>请您提供一下办理车牌号、姓名及身份证号</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45706.67392361111</v>
+        <v>45745.8752662037</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
@@ -1283,124 +1283,1116 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mImjjNz1ghx</t>
+          <t>mImjjt4c8hr</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>高婷(8040)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>修改一下车辆信息</t>
+          <t>帮我把建设银行解绑一下</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>请您提供一下车牌号、姓名及身份证号</t>
+          <t>您是非同行渠道换绑,可以直接绑定农业银行</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45706.75988425926</v>
+        <v>45746.38936342593</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['订单问题', '车辆相关']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mImjjZv3Uu2</t>
+          <t>mImjjHwPa6I</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>李碧柔(8023)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>这个就是etc助手</t>
+          <t>沪G***59黄牌,注销,车辆卖了</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>您微信搜一下:"中国etc服务"</t>
+          <t>请您提供一下客户的行驶证,或办理人姓名,联系方式</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45706.76013888889</v>
+        <v>45746.43768518518</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['ETC业务']</t>
+          <t>['车辆相关', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mImjjNPasgW</t>
+          <t>mImjj8VeC6H</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>李碧柔(8023)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>更换车辆etc</t>
+          <t>麻烦查一下这个车牌激活的设备卡号一下</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>etc不支持更换车辆的</t>
+          <t>请您提供一下车牌号</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45706.77079861111</v>
+        <v>45746.44306712963</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['车辆相关', 'ETC业务']</t>
+          <t>['车辆相关']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mImjjhIY5Hw</t>
+          <t>mImjjMvE7jb</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>李嘉祺(8034)</t>
+          <t>高婷(8040)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>那边说是ETC 问题</t>
+          <t>我需要解除车牌占用问题</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>但通行账单确实是高速下发,您可以直接联系95022反馈一下</t>
+          <t>请您提供行驶证、保单、绿本(三选二).</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45706.821875</v>
+        <v>45746.44784722223</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['ETC业务', '投诉建议']</t>
+          <t>['投诉建议', '车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>mImjjH4VTfp</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>李碧柔(8023)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>注销是几天</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>预计34个工作日注销完成</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45746.47570601852</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mImjjyttCwS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>高婷(8040)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>注销需要几天就可以完成了</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>注销需要34个工作日</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45746.52383101852</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mImjj8Luap7</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>刘雯(8036)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>贵A***03注销好了没有</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>该车牌在等待注销,预计12个工作日注销完成</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45746.61508101852</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mImjjvUrXcU</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>云L***56黄牌,查一下多久注销完成</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>请您提供下办理的车牌号、姓名、身份证号</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45746.61684027778</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mImjjvUrXcU</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>麻烦看哈提交注销没有</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>预计周一周二左右可以注销完成</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45746.6174537037</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mImjjwp1af2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>刘雯(8036)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>支付了</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>请提供带交易单号的支付截图</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45746.63594907407</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mImjjSuXp7F</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>现在有没服务费的产品了</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>我公司ETC产品办理无押金、无保证金、无设备费,使用中正常还款除了通道费、服务费没有其他任何费用(周卡产品正常还款无服务费,仅卡费及通道费),逾期滞纳金在同行业中也是最低水平,也希望您继续关注并使用我们公司的ETC产品,后续有任何问题也可以联系我们协助您解决的,请您再了解并考虑一下</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45746.66643518519</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['商品问题', '服务问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mImjj332ePd</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>注销etc</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>身份证原件放在上面拍照</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45746.66898148148</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mImjjhIY5Hw</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>出院了,就开始付款</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>客户可以不注销,等满三年再联系我们是可以免费的,如果现在要注销,是需要支付费用的</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45746.67123842592</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['支付问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>mImjjPyD4GV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>刘雯(8036)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>明白了,还要多久才能注销成功</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>该车牌已经在等待注销,预计12个工作日注销完成</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45746.6799537037</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mImjjt6cjln</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>晋J***80黄,是不是我们产品..</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>是我们家的,速通产品,已使用满年限需要填写注销单注销,没有注销费</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45746.68920138889</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['商品问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mImjjLKeNMN</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>之前绑定的车牌号过户了</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>解悠不支持更换车辆信息 只能注销重新办</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45746.75821759259</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['车辆相关', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mImjjSsR9L9</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>我要修改成普货的</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>您等下高速了再联系我们修改吧</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45746.77417824074</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['订单问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mImjjg3ZL5W</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>解除绑定账户</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>是注销ETC还是更换绑定银行卡</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45746.79010416667</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mImjjVdyjE8</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>有个客户办理ETC他中途退出来了,再进去办理显示该车牌已经办理</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>请您提供一下车牌号</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45746.80394675926</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['车辆相关', 'ETC业务']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>mImjjAZTuEf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>梅夏明(8007)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>是过路费还是通行费</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>高速通行费</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45746.80474537037</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['ETC业务']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mImjjeBzUST</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>石婉琦(8005)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>车辆出售</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>请您提供一下行驶证</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45747.37809027778</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mImjjBf6sBW</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>高婷(8040)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>注销成功没有看看ETC</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>请您提供一下车牌号、姓名及身份证号</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45747.38175925926</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mImjj8E6Qs4</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>孙可(8026)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>真是垃圾公司,只知道收服务费,注销就心疼了</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>非常抱歉,这边会帮您去催一下注销专员的</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45747.4234375</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['服务问题', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mImjjWlAG2j</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>尤木孜(8018)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>需要注销etc</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>请您提供一下车牌号、姓名及身份证号</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45747.45079861111</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['ETC业务', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mImjjKMljyw</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>胡敏丽(8039)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>考虑清楚了,我现在就是要注销.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>注销需要您提供一下行驶证</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45747.47765046296</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>mImjjVT86Rv</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>石婉琦(8005)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>给我取消了没</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>已经取消</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45747.51770833333</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['订单问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mImjj3XjDzB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>石婉琦(8005)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>车牌还没有回来</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>等车牌回来联系我们重新发一下</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45747.5778125</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mImjjVC6LQf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>韦武(8010)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>注销得多长时间</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>解悠产品注销时效是34个工作日</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45747.5853125</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mImjjhGQbC1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>高婷(8040)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>你那边认证好,我这边就可以登录了吧</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>您用新手机号去解悠小程序登录看一下</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45747.60574074074</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['安全隐私', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mImjjybayHT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>石婉琦(8005)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>不给我注销,我要投诉你们</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>或者您可以满3年联系我们免费注销</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45747.61569444444</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['投诉建议', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mImjjCuBHhw</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>余昌艳(8041)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>已经注销了</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>已经在注销流程中了</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45747.64714120371</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mImjjY3gfUE</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>韦武(8010)</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>车辆没有用了,注销</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>请您提供一下车牌号、姓名及身份证号</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45747.72243055556</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['车辆相关', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mImjjtNlfWh</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>于水清(8020)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>这个通道费用是不是绑定建设银行卡就不收费了</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>请您提供下办理的车牌号、姓名、身份证号</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45747.7615162037</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['支付问题', '账户问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mImjjgUlvGL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>车牌号我给你发了</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>请您提供一下车牌号、姓名及身份证号</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45747.77659722222</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['车辆相关']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mImjjBy3FTj</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>给他加急处理一下</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>抱歉,目前不支持加急的</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45747.79962962963</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['紧急问题']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mImjjvv88a6</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>李嘉祺(8034)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>现在货车都没有服务费</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>服务费无法取消</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45747.8944675926</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['服务问题']</t>
         </is>
       </c>
     </row>

--- a/output/qa_pairs.xlsx
+++ b/output/qa_pairs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,243 +539,243 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mImjjN1hszt</t>
+          <t>mImjjshddS9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>李军燕(8038)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>付款了</t>
+          <t>这个几天之后可以注销成功.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>请提供带订单编号的支付截图</t>
+          <t>34个工作日完成注销,注销成功之后就可以新办了</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45744.6840162037</v>
+        <v>45744.82119212963</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['支付问题']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mImjjNGjrXB</t>
+          <t>mImjj3b1ZeH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>李军燕(8038)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>修改吧</t>
+          <t>旧手机号不能接验证码</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>稍等,这边为您提交修改</t>
+          <t>那第一步新手机号实名好之后联系我们</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45744.76846064815</v>
+        <v>45745.38597222222</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['订单问题']</t>
+          <t>['安全隐私']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mImjjshddS9</t>
+          <t>mImjjttU4HP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>李军燕(8038)</t>
+          <t>刘雯(8036)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>这个几天之后可以注销成功.</t>
+          <t>快速拔卡插卡两次显示记账卡</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>34个工作日完成注销,注销成功之后就可以新办了</t>
+          <t>返回上一界面,快速插拔卡两次,设备屏幕显示蓝牙打开后再激活</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45744.82119212963</v>
+        <v>45745.46359953703</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['紧急问题']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mImjjIzyIYX</t>
+          <t>mImjjZ99nwP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>李军燕(8038)</t>
+          <t>孙可(8026)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>转账成功后截图发到您这里是吧</t>
+          <t>查询一下川Q***23黄牌货车状态</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>是的,转账成功之后请您带付款截图发至我们客服这边,为您申请结清.</t>
+          <t>后台查询您还有今天的账单等待划扣,您记得存够钱今天下午5点10分会自动划扣</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45744.83432870371</v>
+        <v>45745.54710648148</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['支付问题']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mImjjbzK1fc</t>
+          <t>mImjjfvv5sB</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>孙可(8026)</t>
+          <t>刘雯(8036)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>车辆出售</t>
+          <t>我的退款咋还没有到账喃</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>请您提供一下行驶证</t>
+          <t>车牌 川A****52,请稍等,正在为您查询</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45745.35604166667</v>
+        <v>45745.58096064815</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['车辆相关']</t>
+          <t>['支付问题', '订单问题']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mImjj3b1ZeH</t>
+          <t>mImjjzPt5vu</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>于水清(8020)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>旧手机号不能接验证码</t>
+          <t>不注销</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>那第一步新手机号实名好之后联系我们</t>
+          <t>还没有注销</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45745.38597222222</v>
+        <v>45745.59027777778</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['安全隐私']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mImjjcw2wSe</t>
+          <t>mImjjwYTe1U</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>孙可(8026)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>你好注销申请帮我加急</t>
+          <t>淘宝客户说,以后注销了</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>请您提供一下车牌号、姓名及身份证号</t>
+          <t>需要支付完注销违约金34个工作日注销</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45745.43996527778</v>
+        <v>45745.59788194444</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['紧急问题', '账户问题']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mImjj1j2Fe9</t>
+          <t>mImjjwYTe1U</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>于水清(8020)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>麻烦你帮我注销一下</t>
+          <t>讲的已经注销了</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>速通注销 将文档打印下来,按要求将办理人和车辆的信息手抄填写完成后,将身份证原件摁在上面,拍照片发过来;将卡片剪断,拍照片发过来</t>
+          <t>后台显示未支付注销违约金,您跟他再核实一下吧</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45745.45305555555</v>
+        <v>45745.59878472222</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -787,181 +787,181 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mImjjWvvFDf</t>
+          <t>mImjjlTCb8p</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>于水清(8020)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>你好,怕有欠款影响车辆通行</t>
+          <t>花钱就先不注销了</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>请您提供下办理的车牌号(其中一个)、姓名、身份证号</t>
+          <t>不注销的话新车主那边无法办理etc的</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45745.45711805556</v>
+        <v>45745.70636574074</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['车辆相关']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mImjjttU4HP</t>
+          <t>mImjjMXjAuX</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>刘雯(8036)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>快速拔卡插卡两次显示记账卡</t>
+          <t>后台查询不了嘛</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>返回上一界面,快速插拔卡两次,设备屏幕显示蓝牙打开后再激活</t>
+          <t>后台只能查询出了账单的,不能通行的这边是查不到的</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45745.46359953703</v>
+        <v>45745.78429398148</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['紧急问题']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mImjjrdlTDv</t>
+          <t>mImjjuZSyE7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>孙可(8026)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>我支付</t>
+          <t>怕身份证正反面照片清晰度不够 先和客服报备一下 不弄虚作假</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>扫码支付需要提供行驶证保单绿本三选二</t>
+          <t>您这个身份证已经过期了</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45745.53943287037</v>
+        <v>45745.82974537037</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['支付问题']</t>
+          <t>['账户问题', '服务问题']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mImjjZ99nwP</t>
+          <t>mImjj4tVRvK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>孙可(8026)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>查询一下川Q***23黄牌货车状态</t>
+          <t>8039 0328 155922 晋M***52 后台查询到客户名下另一辆车有账单逾期,需要将账单结清之后才能申请注销 0328 16003 联系不上前车主</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>后台查询您还有今天的账单等待划扣,您记得存够钱今天下午5点10分会自动划扣</t>
+          <t>结清之后可以办理注销</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45745.54710648148</v>
+        <v>45745.8474537037</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['订单问题']</t>
+          <t>['账户问题', '订单问题']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mImjjfvv5sB</t>
+          <t>mImjjyFD6zT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>刘雯(8036)</t>
+          <t>骆肇啟(8037)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>我的退款咋还没有到账喃</t>
+          <t>明天注销</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>车牌 川A****52,请稍等,正在为您查询</t>
+          <t>需要注销完成才能新办,注销需要34个工作日</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45745.58096064815</v>
+        <v>45745.86825231482</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['订单问题', '支付问题']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mImjjzPt5vu</t>
+          <t>mImjjt4c8hr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>高婷(8040)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>不注销</t>
+          <t>帮我把建设银行解绑一下</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>还没有注销</t>
+          <t>您是非同行渠道换绑,可以直接绑定农业银行</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45745.59027777778</v>
+        <v>45746.38936342593</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
@@ -973,26 +973,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mImjjwYTe1U</t>
+          <t>mImjjH4VTfp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>李碧柔(8023)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>淘宝客户说,以后注销了</t>
+          <t>注销是几天</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>需要支付完注销违约金34个工作日注销</t>
+          <t>预计34个工作日注销完成</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45745.59788194444</v>
+        <v>45746.47570601852</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
@@ -1004,26 +1004,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mImjjwYTe1U</t>
+          <t>mImjjyttCwS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>高婷(8040)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>讲的已经注销了</t>
+          <t>注销需要几天就可以完成了</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>后台显示未支付注销违约金,您跟他再核实一下吧</t>
+          <t>注销需要34个工作日</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45745.59878472222</v>
+        <v>45746.52383101852</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
@@ -1035,26 +1035,26 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mImjjlTCb8p</t>
+          <t>mImjj8Luap7</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>刘雯(8036)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>花钱就先不注销了</t>
+          <t>贵A***03注销好了没有</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>不注销的话新车主那边无法办理etc的</t>
+          <t>该车牌在等待注销,预计12个工作日注销完成</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45745.70636574074</v>
+        <v>45746.61508101852</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mImjjVT86Rv</t>
+          <t>mImjjvUrXcU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1076,140 +1076,140 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>我要注销这个车牌</t>
+          <t>麻烦看哈提交注销没有</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>请提供办理人的车牌号 姓名 手机号</t>
+          <t>预计周一周二左右可以注销完成</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45745.7224074074</v>
+        <v>45746.6174537037</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['车辆相关', '账户问题']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mImjjMXjAuX</t>
+          <t>mImjjSuXp7F</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>梅夏明(8007)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>后台查询不了嘛</t>
+          <t>现在有没服务费的产品了</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>后台只能查询出了账单的,不能通行的这边是查不到的</t>
+          <t>我公司ETC产品办理无押金、无保证金、无设备费,使用中正常还款除了通道费、服务费没有其他任何费用(周卡产品正常还款无服务费,仅卡费及通道费),逾期滞纳金在同行业中也是最低水平,也希望您继续关注并使用我们公司的ETC产品,后续有任何问题也可以联系我们协助您解决的,请您再了解并考虑一下</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45745.78429398148</v>
+        <v>45746.66643518519</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['订单问题']</t>
+          <t>['商品问题', '服务问题']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mImjjuZSyE7</t>
+          <t>mImjj332ePd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>怕身份证正反面照片清晰度不够 先和客服报备一下 不弄虚作假</t>
+          <t>注销etc</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>您这个身份证已经过期了</t>
+          <t>身份证原件放在上面拍照</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45745.82974537037</v>
+        <v>45746.66898148148</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['服务问题', '账户问题']</t>
+          <t>['账户问题', 'ETC业务']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>mImjj4tVRvK</t>
+          <t>mImjjhIY5Hw</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8039 0328 155922 晋M***52 后台查询到客户名下另一辆车有账单逾期,需要将账单结清之后才能申请注销 0328 16003 联系不上前车主</t>
+          <t>出院了,就开始付款</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>结清之后可以办理注销</t>
+          <t>客户可以不注销,等满三年再联系我们是可以免费的,如果现在要注销,是需要支付费用的</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45745.8474537037</v>
+        <v>45746.67123842592</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['订单问题', '账户问题']</t>
+          <t>['支付问题']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mImjjyFD6zT</t>
+          <t>mImjjPyD4GV</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>刘雯(8036)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>明天转了,多会可以注销</t>
+          <t>明白了,还要多久才能注销成功</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>转完之后您提供一下转账截图,填写一下注销单</t>
+          <t>该车牌已经在等待注销,预计12个工作日注销完成</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45745.86570601852</v>
+        <v>45746.6799537037</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
@@ -1221,57 +1221,57 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mImjjyFD6zT</t>
+          <t>mImjjSsR9L9</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>于水清(8020)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>明天注销</t>
+          <t>我要修改成普货的</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>需要注销完成才能新办,注销需要34个工作日</t>
+          <t>您等下高速了再联系我们修改吧</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45745.86825231482</v>
+        <v>45746.77417824074</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mImjjlZPlve</t>
+          <t>mImjjg3ZL5W</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>骆肇啟(8037)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>能否换绑定的银行卡</t>
+          <t>解除绑定账户</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>请您提供一下办理车牌号、姓名及身份证号</t>
+          <t>是注销ETC还是更换绑定银行卡</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45745.8752662037</v>
+        <v>45746.79010416667</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
@@ -1283,212 +1283,212 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>mImjjt4c8hr</t>
+          <t>mImjjAZTuEf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>高婷(8040)</t>
+          <t>梅夏明(8007)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>帮我把建设银行解绑一下</t>
+          <t>是过路费还是通行费</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>您是非同行渠道换绑,可以直接绑定农业银行</t>
+          <t>高速通行费</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45746.38936342593</v>
+        <v>45746.80474537037</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['ETC业务']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mImjjHwPa6I</t>
+          <t>mImjj8E6Qs4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>李碧柔(8023)</t>
+          <t>孙可(8026)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>沪G***59黄牌,注销,车辆卖了</t>
+          <t>真是垃圾公司,只知道收服务费,注销就心疼了</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>请您提供一下客户的行驶证,或办理人姓名,联系方式</t>
+          <t>非常抱歉,这边会帮您去催一下注销专员的</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45746.43768518518</v>
+        <v>45747.4234375</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['车辆相关', '账户问题']</t>
+          <t>['账户问题', '服务问题']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mImjj8VeC6H</t>
+          <t>mImjjVT86Rv</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>李碧柔(8023)</t>
+          <t>石婉琦(8005)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>麻烦查一下这个车牌激活的设备卡号一下</t>
+          <t>给我取消了没</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>请您提供一下车牌号</t>
+          <t>已经取消</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>45746.44306712963</v>
+        <v>45747.51770833333</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['车辆相关']</t>
+          <t>['订单问题']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mImjjMvE7jb</t>
+          <t>mImjjVC6LQf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>高婷(8040)</t>
+          <t>韦武(8010)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>我需要解除车牌占用问题</t>
+          <t>注销得多长时间</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>请您提供行驶证、保单、绿本(三选二).</t>
+          <t>解悠产品注销时效是34个工作日</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>45746.44784722223</v>
+        <v>45747.5853125</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['投诉建议', '车辆相关']</t>
+          <t>['账户问题']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mImjjH4VTfp</t>
+          <t>mImjjhGQbC1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>李碧柔(8023)</t>
+          <t>高婷(8040)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>注销是几天</t>
+          <t>你那边认证好,我这边就可以登录了吧</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>预计34个工作日注销完成</t>
+          <t>您用新手机号去解悠小程序登录看一下</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>45746.47570601852</v>
+        <v>45747.60574074074</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['安全隐私', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mImjjyttCwS</t>
+          <t>mImjjybayHT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>高婷(8040)</t>
+          <t>石婉琦(8005)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>注销需要几天就可以完成了</t>
+          <t>不给我注销,我要投诉你们</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>注销需要34个工作日</t>
+          <t>或者您可以满3年联系我们免费注销</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>45746.52383101852</v>
+        <v>45747.61569444444</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['投诉建议', '账户问题']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mImjj8Luap7</t>
+          <t>mImjjCuBHhw</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>刘雯(8036)</t>
+          <t>余昌艳(8041)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>贵A***03注销好了没有</t>
+          <t>已经注销了</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>该车牌在等待注销,预计12个工作日注销完成</t>
+          <t>已经在注销流程中了</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>45746.61508101852</v>
+        <v>45747.64714120371</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
@@ -1500,897 +1500,60 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>mImjjvUrXcU</t>
+          <t>mImjjBy3FTj</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>于水清(8020)</t>
+          <t>李嘉祺(8034)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>云L***56黄牌,查一下多久注销完成</t>
+          <t>给他加急处理一下</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>请您提供下办理的车牌号、姓名、身份证号</t>
+          <t>抱歉,目前不支持加急的</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>45746.61684027778</v>
+        <v>45747.79962962963</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['账户问题']</t>
+          <t>['紧急问题']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mImjjvUrXcU</t>
+          <t>mImjjvv88a6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>于水清(8020)</t>
+          <t>李嘉祺(8034)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>麻烦看哈提交注销没有</t>
+          <t>现在货车都没有服务费</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>预计周一周二左右可以注销完成</t>
+          <t>服务费无法取消</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>45746.6174537037</v>
+        <v>45747.8944675926</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>['账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>mImjjwp1af2</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>刘雯(8036)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>支付了</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>请提供带交易单号的支付截图</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>45746.63594907407</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['支付问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>mImjjSuXp7F</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>于水清(8020)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>现在有没服务费的产品了</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>我公司ETC产品办理无押金、无保证金、无设备费,使用中正常还款除了通道费、服务费没有其他任何费用(周卡产品正常还款无服务费,仅卡费及通道费),逾期滞纳金在同行业中也是最低水平,也希望您继续关注并使用我们公司的ETC产品,后续有任何问题也可以联系我们协助您解决的,请您再了解并考虑一下</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>45746.66643518519</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['商品问题', '服务问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>mImjj332ePd</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>于水清(8020)</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>注销etc</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>身份证原件放在上面拍照</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>45746.66898148148</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['ETC业务', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>mImjjhIY5Hw</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>梅夏明(8007)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>出院了,就开始付款</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>客户可以不注销,等满三年再联系我们是可以免费的,如果现在要注销,是需要支付费用的</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45746.67123842592</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['支付问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>mImjjPyD4GV</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>刘雯(8036)</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>明白了,还要多久才能注销成功</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>该车牌已经在等待注销,预计12个工作日注销完成</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45746.6799537037</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>mImjjt6cjln</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>梅夏明(8007)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>晋J***80黄,是不是我们产品..</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>是我们家的,速通产品,已使用满年限需要填写注销单注销,没有注销费</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>45746.68920138889</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['商品问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>mImjjLKeNMN</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>于水清(8020)</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>之前绑定的车牌号过户了</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>解悠不支持更换车辆信息 只能注销重新办</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>45746.75821759259</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['车辆相关', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>mImjjSsR9L9</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>于水清(8020)</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>我要修改成普货的</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>您等下高速了再联系我们修改吧</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45746.77417824074</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['订单问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>mImjjg3ZL5W</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>梅夏明(8007)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>解除绑定账户</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>是注销ETC还是更换绑定银行卡</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45746.79010416667</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>mImjjVdyjE8</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>于水清(8020)</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>有个客户办理ETC他中途退出来了,再进去办理显示该车牌已经办理</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>请您提供一下车牌号</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45746.80394675926</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['车辆相关', 'ETC业务']</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>mImjjAZTuEf</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>梅夏明(8007)</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>是过路费还是通行费</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>高速通行费</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45746.80474537037</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['ETC业务']</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>mImjjeBzUST</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>石婉琦(8005)</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>车辆出售</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>请您提供一下行驶证</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45747.37809027778</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['车辆相关']</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>mImjjBf6sBW</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>高婷(8040)</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>注销成功没有看看ETC</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>请您提供一下车牌号、姓名及身份证号</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45747.38175925926</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['ETC业务', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>mImjj8E6Qs4</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>孙可(8026)</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>真是垃圾公司,只知道收服务费,注销就心疼了</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>非常抱歉,这边会帮您去催一下注销专员的</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45747.4234375</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['服务问题', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>mImjjWlAG2j</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>尤木孜(8018)</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>需要注销etc</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>请您提供一下车牌号、姓名及身份证号</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45747.45079861111</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['ETC业务', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>mImjjKMljyw</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>胡敏丽(8039)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>考虑清楚了,我现在就是要注销.</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>注销需要您提供一下行驶证</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45747.47765046296</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>mImjjVT86Rv</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>石婉琦(8005)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>给我取消了没</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>已经取消</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45747.51770833333</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['订单问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>mImjj3XjDzB</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>石婉琦(8005)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>车牌还没有回来</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>等车牌回来联系我们重新发一下</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45747.5778125</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['车辆相关']</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>mImjjVC6LQf</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>韦武(8010)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>注销得多长时间</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>解悠产品注销时效是34个工作日</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45747.5853125</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>mImjjhGQbC1</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>高婷(8040)</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>你那边认证好,我这边就可以登录了吧</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>您用新手机号去解悠小程序登录看一下</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45747.60574074074</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['安全隐私', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>mImjjybayHT</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>石婉琦(8005)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>不给我注销,我要投诉你们</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>或者您可以满3年联系我们免费注销</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45747.61569444444</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['投诉建议', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>mImjjCuBHhw</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>余昌艳(8041)</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>已经注销了</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>已经在注销流程中了</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45747.64714120371</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>mImjjY3gfUE</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>韦武(8010)</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>车辆没有用了,注销</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>请您提供一下车牌号、姓名及身份证号</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45747.72243055556</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['车辆相关', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>mImjjtNlfWh</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>于水清(8020)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>这个通道费用是不是绑定建设银行卡就不收费了</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>请您提供下办理的车牌号、姓名、身份证号</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>45747.7615162037</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['支付问题', '账户问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>mImjjgUlvGL</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>李嘉祺(8034)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>车牌号我给你发了</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>请您提供一下车牌号、姓名及身份证号</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>45747.77659722222</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['车辆相关']</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>mImjjBy3FTj</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>李嘉祺(8034)</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>给他加急处理一下</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>抱歉,目前不支持加急的</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>45747.79962962963</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['紧急问题']</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>mImjjvv88a6</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>李嘉祺(8034)</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>现在货车都没有服务费</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>服务费无法取消</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>45747.8944675926</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
         <is>
           <t>['服务问题']</t>
         </is>
